--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1593,83 +1593,6 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Shrawmana bengali</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Ramesh Deka</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>999999999</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>AS55</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>785431</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>yo</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Bongaigaon</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Bongaigaon</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>LT II DOMESTIC A</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>BONGAIGAON</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>BONGAIGAONED</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>BONGAIGAON1</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Lane 5</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>CH Road</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="n">
-        <v>45143</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
